--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Calculated MSD</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -387,25 +390,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +419,7 @@
         <v>0.002458849001428121</v>
       </c>
       <c r="C3">
-        <v>0.002500000000000003</v>
+        <v>0.002500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +430,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.009733186647545793</v>
+        <v>0.009760784101183216</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +441,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.02147390062920515</v>
+        <v>0.02134648333255182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +452,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.03748084187200104</v>
+        <v>0.03694785637232254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +463,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.05752828579205947</v>
+        <v>0.08035233657261469</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +474,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.08109985370688738</v>
+        <v>0.1084652398157945</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +485,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.1096714216217153</v>
+        <v>0.1395419176492304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +496,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.1417225243359159</v>
+        <v>0.1743827495148972</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +507,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.1777030463065759</v>
+        <v>0.2130908392867425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +518,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.2164989999587158</v>
+        <v>0.2539753803346341</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +529,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.2585167977124324</v>
+        <v>0.2989344999095049</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -536,8 +539,8 @@
       <c r="B14">
         <v>0.2976232721880532</v>
       </c>
-      <c r="C14">
-        <v>0.3036490441456688</v>
+      <c r="C14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +551,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.3516181912691288</v>
+        <v>0.3471588284604283</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +562,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.4009636270706641</v>
+        <v>0.3971230091095768</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +573,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.4521654443004753</v>
+        <v>0.4486640987218303</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +584,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.5064243567649525</v>
+        <v>0.5017174113739385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +595,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.5643871858624726</v>
+        <v>0.5566616029151557</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +606,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.6247049829737477</v>
+        <v>0.6140406796055223</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +617,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.6869750043010696</v>
+        <v>0.6739900642689142</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +628,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.7496326215252843</v>
+        <v>0.7366070993946875</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +639,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.8134779802480968</v>
+        <v>0.801831478531836</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +650,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.8765305937752952</v>
+        <v>0.87100523974207</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +661,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.9411769248146902</v>
+        <v>0.940479485624675</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +672,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>1.007209494318279</v>
+        <v>1.012341439559063</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +683,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>1.071839610159923</v>
+        <v>1.084279220189093</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +694,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>1.135970133435475</v>
+        <v>1.156605584667147</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +705,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>1.201179671379281</v>
+        <v>1.228983005453824</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +716,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>1.268767477639429</v>
+        <v>1.303058464257458</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +727,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>1.341929184059094</v>
+        <v>1.374677826654645</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +738,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>1.414830655508828</v>
+        <v>1.444194557857001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +749,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>1.490409053987639</v>
+        <v>1.518304535506705</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +760,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>1.561692807697523</v>
+        <v>1.592641321257066</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +771,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>1.638263841327833</v>
+        <v>1.663838099767456</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +782,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>1.718651666189197</v>
+        <v>1.732533681830907</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +793,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>1.799560515513725</v>
+        <v>1.794407789792363</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +804,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>1.877746668746753</v>
+        <v>1.862300057870961</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +815,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>1.953064710110436</v>
+        <v>1.929556106473593</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +826,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>2.028972543465769</v>
+        <v>2.0010191733558</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +837,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>2.10408751272838</v>
+        <v>2.075103796744148</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +848,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>2.178821840565053</v>
+        <v>2.145662752062313</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +859,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>2.260656506722095</v>
+        <v>2.215736403985142</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +870,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>2.343268538210845</v>
+        <v>2.282981815156851</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +881,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>2.42090633466272</v>
+        <v>2.357213515424066</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +892,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>2.497392033856948</v>
+        <v>2.438436975585732</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +903,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>2.579763494373864</v>
+        <v>2.609838542267054</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +914,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>2.660402340532455</v>
+        <v>2.698082137186031</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +925,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>2.746041186691046</v>
+        <v>2.786606334438765</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +936,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>2.833714370069746</v>
+        <v>2.875226967856404</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +947,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>2.920478897412183</v>
+        <v>2.962968873307452</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +958,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>3.009721238410253</v>
+        <v>3.045417241128858</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +969,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>3.099968655278981</v>
+        <v>3.127931917355723</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +980,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>3.193295830301896</v>
+        <v>3.213631440000162</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +991,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>3.290642363261725</v>
+        <v>3.294943480305312</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +1002,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>3.385867614546218</v>
+        <v>3.378304057382122</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1013,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>3.481333976638575</v>
+        <v>3.462845691831157</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1024,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>3.577619411304323</v>
+        <v>3.549463313396216</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1035,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>3.674555730057529</v>
+        <v>3.634260289503489</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1046,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>3.771211775513603</v>
+        <v>3.721744393459504</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1057,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>3.864619754591389</v>
+        <v>3.804866783613384</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1068,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>3.959810253662387</v>
+        <v>3.895848174106995</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1079,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>4.053574366121328</v>
+        <v>3.987782329945922</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1090,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>4.144636167745167</v>
+        <v>4.081864625766676</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1101,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>4.235183660344276</v>
+        <v>4.186065050897928</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1112,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>4.323558199038596</v>
+        <v>4.292069417417588</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1123,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>4.417243369373415</v>
+        <v>4.398174187150796</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1134,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>4.516467621665169</v>
+        <v>4.503967716160393</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1145,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>4.61552747098999</v>
+        <v>4.611513870997473</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1156,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>4.715372694264128</v>
+        <v>4.720707543845393</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1167,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>4.821286817345534</v>
+        <v>4.830977757853618</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1178,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>4.931944324051793</v>
+        <v>4.939522458085083</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1189,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>5.03839472910378</v>
+        <v>5.046545368990595</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1200,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>5.14820608376501</v>
+        <v>5.154442102774368</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1211,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>5.252688460829408</v>
+        <v>5.26096405617846</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1222,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>5.363114131175125</v>
+        <v>5.361390902256107</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1233,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>5.46902637667607</v>
+        <v>5.463665312936752</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1244,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>5.578571540009717</v>
+        <v>5.557627108131595</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1255,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>5.689183918518037</v>
+        <v>5.646248022272926</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1266,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>5.7978167319414</v>
+        <v>5.733560188151462</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1277,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>5.90359222452368</v>
+        <v>5.817560129026177</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1288,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>6.009385604430499</v>
+        <v>5.899451954597545</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1299,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>6.123628640792593</v>
+        <v>5.980994475102967</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1310,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>6.239439834963373</v>
+        <v>6.064533840287132</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1321,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>6.344964180057335</v>
+        <v>6.147093930749616</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1332,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>6.451514315338735</v>
+        <v>6.234549224067079</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1343,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>6.557478451402323</v>
+        <v>6.321440471548613</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1354,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>6.663936815159284</v>
+        <v>6.406508227396405</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1365,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>6.771114200465096</v>
+        <v>6.478600374263913</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1376,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>6.873580771113141</v>
+        <v>6.552573566419376</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1387,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>6.978197501445388</v>
+        <v>6.636853086317839</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1398,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>7.082282302188466</v>
+        <v>6.714592292553951</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1409,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>7.187336658772607</v>
+        <v>6.805167112635522</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1420,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>7.29439337710044</v>
+        <v>6.896423774270391</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1431,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>7.412143457896697</v>
+        <v>6.990450856611437</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1442,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>7.531224251117627</v>
+        <v>7.089766465213634</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1453,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>7.652609357665973</v>
+        <v>7.185973828258186</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1464,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>7.778416753924975</v>
+        <v>7.288915200751341</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1475,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>7.909183735596232</v>
+        <v>7.391632364067011</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1486,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>8.037560140050015</v>
+        <v>7.486313631175952</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1497,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>8.151376102203676</v>
+        <v>7.57390239816642</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1508,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>8.267743939221022</v>
+        <v>7.65804538407959</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1519,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>8.378177981253696</v>
+        <v>7.753859599177416</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1530,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>8.486296191658143</v>
+        <v>7.847954082093303</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1541,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>8.599816495934329</v>
+        <v>7.935129859657902</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1552,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>8.713236163285504</v>
+        <v>8.015314496777957</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1563,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>8.825733896740291</v>
+        <v>8.102336083440457</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1574,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>8.936438260556658</v>
+        <v>8.188448512988316</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1585,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>9.044353196074743</v>
+        <v>8.276388296335714</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1596,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>9.154276379508689</v>
+        <v>8.35927156976684</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1607,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>9.267091315184496</v>
+        <v>8.455512137028496</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1618,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>9.378874765520782</v>
+        <v>8.551118353107897</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1629,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>9.489460983578233</v>
+        <v>8.642301521362302</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1640,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>9.599648758118418</v>
+        <v>8.740970474072109</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1651,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>9.723479640711362</v>
+        <v>8.837324943250403</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1662,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>9.837102732561588</v>
+        <v>8.930487563277442</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1673,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>9.951727053825612</v>
+        <v>9.024089616679033</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1684,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>10.06291166663176</v>
+        <v>9.114282515102152</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1695,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>10.17247693187995</v>
+        <v>9.205514820536143</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1706,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>10.28863935110907</v>
+        <v>9.311956953998589</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1717,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>10.40649417976085</v>
+        <v>9.428569583852317</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1728,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>10.53077595262836</v>
+        <v>9.54516025477678</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1739,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>10.65633007152276</v>
+        <v>9.659365098863734</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1750,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>10.79067689895936</v>
+        <v>9.771654656362628</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1761,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>10.92230923290858</v>
+        <v>9.880713731822741</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1772,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>11.0709977126466</v>
+        <v>9.989471694082066</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1783,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>11.217048095264</v>
+        <v>10.10157716313816</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1794,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>11.36663044766567</v>
+        <v>10.21713983857721</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1805,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>11.50011943556161</v>
+        <v>10.34086498616073</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1816,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>11.65039215066234</v>
+        <v>10.47623533068616</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1827,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>11.79821174570517</v>
+        <v>10.61100393404702</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1838,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>11.94250737255486</v>
+        <v>10.75625688194152</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1849,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>12.07451585022532</v>
+        <v>10.89848854972374</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1860,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>12.20846603190473</v>
+        <v>11.02680540850289</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1871,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>12.34379197431405</v>
+        <v>11.14383936808092</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1882,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>12.47917622580318</v>
+        <v>11.2645773712481</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1893,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>12.62645846923031</v>
+        <v>11.37828873143299</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1904,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>12.77893276243077</v>
+        <v>11.49250381547966</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1915,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>12.92097832041171</v>
+        <v>11.59084940883386</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1926,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>13.04247145078163</v>
+        <v>11.69245126761999</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1937,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>13.16823015673706</v>
+        <v>11.79064955017009</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1948,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>13.29225266113661</v>
+        <v>11.88827499305149</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1959,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>13.4115599998041</v>
+        <v>11.98495845607781</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1970,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>13.53818716597119</v>
+        <v>12.07541298358169</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1981,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>13.66487236104539</v>
+        <v>12.16998530395441</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1992,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>13.79016480820333</v>
+        <v>12.2788057750144</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2003,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>13.91490199968833</v>
+        <v>12.38721354361942</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2014,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>14.04122692839034</v>
+        <v>12.50538732531475</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2025,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>14.15980277031468</v>
+        <v>12.61900912037826</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2036,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>14.25583227261096</v>
+        <v>12.73500365348901</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2047,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>14.3540808151345</v>
+        <v>12.84828706171731</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2058,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>14.44893309512485</v>
+        <v>12.95127997726702</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2069,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>14.54384271266192</v>
+        <v>13.05417153304757</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2080,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>14.65586029258749</v>
+        <v>13.15166148794847</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2091,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>14.76468114802954</v>
+        <v>13.25163362962674</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2102,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>14.87283085609963</v>
+        <v>13.35837783484083</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2113,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>14.98137518850764</v>
+        <v>13.47690262888612</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2124,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>15.07217085118042</v>
+        <v>13.59335561349478</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2135,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>15.15940113941321</v>
+        <v>13.70044119412384</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2146,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>15.24717198346281</v>
+        <v>13.80453026719735</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2157,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>15.32838009607943</v>
+        <v>13.90433190941125</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2168,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>15.40369225562057</v>
+        <v>14.01507449640017</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2179,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>15.48415823727379</v>
+        <v>14.1144797646882</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2190,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>15.5665099207255</v>
+        <v>14.21503070666535</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2201,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>15.64462978937014</v>
+        <v>14.32462890471835</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2212,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>15.71348166231523</v>
+        <v>14.41152152256992</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2223,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>15.79131212158749</v>
+        <v>14.49940085184561</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2234,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>15.86916586922567</v>
+        <v>14.59362917024294</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2245,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>15.96020877776827</v>
+        <v>14.68921442997339</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2256,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>16.05724205537852</v>
+        <v>14.78292763653928</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2267,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>16.1574557370805</v>
+        <v>14.86847687546782</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2278,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>16.25158701796654</v>
+        <v>14.95775091770601</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2289,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>16.33655482859875</v>
+        <v>15.06106236628749</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2300,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>16.43955403904336</v>
+        <v>15.15117602148942</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2311,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>16.546985855626</v>
+        <v>15.2434707735499</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2322,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>16.64975157197195</v>
+        <v>15.32909588467888</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2333,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>16.75197730729102</v>
+        <v>15.41524991458254</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2344,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>16.85248163961122</v>
+        <v>15.49768090038542</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2355,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>16.95832187419759</v>
+        <v>15.58130837565833</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2366,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>17.07255825068872</v>
+        <v>15.65205936117703</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2377,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>17.18306614615366</v>
+        <v>15.72644746164859</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2388,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>17.28688953783407</v>
+        <v>15.80576519855456</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2399,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>17.39759141939324</v>
+        <v>15.89003448849797</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2410,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>17.50970047094868</v>
+        <v>15.97493176965754</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2421,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>17.61308203050493</v>
+        <v>16.07366091520425</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2432,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>17.73240681526459</v>
+        <v>16.17510565212632</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2443,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>17.84569769875903</v>
+        <v>16.26411607510387</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2454,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>17.95623579626348</v>
+        <v>16.34949379706607</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2465,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>18.06356664517113</v>
+        <v>16.43472547208379</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2476,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>18.14942435687852</v>
+        <v>16.5115086903137</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2483,8 +2486,8 @@
       <c r="B191">
         <v>16.90015737913055</v>
       </c>
-      <c r="C191">
-        <v>18.2367969774758</v>
+      <c r="C191" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2498,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>18.31353634823566</v>
+        <v>16.58375961948672</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2509,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>18.39953777325426</v>
+        <v>16.66042007689497</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2520,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>18.48596241424963</v>
+        <v>16.73291909123467</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2531,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>18.56280784727182</v>
+        <v>16.79873420969811</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2542,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>18.62672777009959</v>
+        <v>16.86468504698581</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2553,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>18.69250539710754</v>
+        <v>16.93430174354904</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2564,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>18.75467993648457</v>
+        <v>17.00579712383342</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2575,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>18.8222079078459</v>
+        <v>17.08274312371975</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2586,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>18.8964087961517</v>
+        <v>17.1510219040349</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2597,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>18.97102536750622</v>
+        <v>17.21308739790581</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2608,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>19.04652492177789</v>
+        <v>17.2952792728425</v>
       </c>
     </row>
   </sheetData>

--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Time</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Calculated MSD</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
         <v>0.002458849001428121</v>
       </c>
       <c r="C3">
-        <v>0.002500000000000004</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.009760784101183216</v>
+        <v>0.009731657581084893</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.02134648333255182</v>
+        <v>0.02156014287236437</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.03694785637232254</v>
+        <v>0.03768382602001703</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.08035233657261469</v>
+        <v>0.05781172450443253</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -474,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.1084652398157945</v>
+        <v>0.08162439036612</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -485,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.1395419176492304</v>
+        <v>0.1093521051619864</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -496,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.1743827495148972</v>
+        <v>0.1406702711802964</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -507,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.2130908392867425</v>
+        <v>0.1751674773806303</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -518,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.2539753803346341</v>
+        <v>0.2123469949122792</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -529,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.2989344999095049</v>
+        <v>0.2533501742200397</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -539,8 +536,8 @@
       <c r="B14">
         <v>0.2976232721880532</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
+      <c r="C14">
+        <v>0.2971163533657147</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -551,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.3471588284604283</v>
+        <v>0.3444042309001714</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -562,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.3971230091095768</v>
+        <v>0.3946886411054428</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -573,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.4486640987218303</v>
+        <v>0.4476435309737083</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -584,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.5017174113739385</v>
+        <v>0.501599096707062</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -595,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.5566616029151557</v>
+        <v>0.5561866564044943</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -606,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.6140406796055223</v>
+        <v>0.6142933550830391</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -617,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.6739900642689142</v>
+        <v>0.6760482842219291</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -628,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.7366070993946875</v>
+        <v>0.739843136319236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -639,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.801831478531836</v>
+        <v>0.8037372037644451</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.87100523974207</v>
+        <v>0.8690482440280916</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.940479485624675</v>
+        <v>0.9338353316439498</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>1.012341439559063</v>
+        <v>0.998029962431613</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>1.084279220189093</v>
+        <v>1.063362409418433</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>1.156605584667147</v>
+        <v>1.128904782005559</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>1.228983005453824</v>
+        <v>1.197160354906182</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>1.303058464257458</v>
+        <v>1.266980976272639</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>1.374677826654645</v>
+        <v>1.337887734037321</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>1.444194557857001</v>
+        <v>1.40723283817489</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>1.518304535506705</v>
+        <v>1.477308001058705</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>1.592641321257066</v>
+        <v>1.550967751996789</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>1.663838099767456</v>
+        <v>1.625303152704055</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>1.732533681830907</v>
+        <v>1.698424672798172</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>1.794407789792363</v>
+        <v>1.777046226429493</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>1.862300057870961</v>
+        <v>1.860729664164077</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>1.929556106473593</v>
+        <v>1.945866435938964</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>2.0010191733558</v>
+        <v>2.030446744159201</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>2.075103796744148</v>
+        <v>2.117540080702551</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>2.145662752062313</v>
+        <v>2.203428214590371</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>2.215736403985142</v>
+        <v>2.287474030024702</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>2.282981815156851</v>
+        <v>2.372257039862484</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>2.357213515424066</v>
+        <v>2.457504730756342</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>2.438436975585732</v>
+        <v>2.548055981525347</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>2.609838542267054</v>
+        <v>2.640630341330711</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>2.698082137186031</v>
+        <v>2.737946201843346</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>2.786606334438765</v>
+        <v>2.838180821096673</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>2.875226967856404</v>
+        <v>2.938804644660234</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>2.962968873307452</v>
+        <v>3.044817511974866</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>3.045417241128858</v>
+        <v>3.148844875902336</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>3.127931917355723</v>
+        <v>3.255664089039995</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>3.213631440000162</v>
+        <v>3.361769739254524</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>3.294943480305312</v>
+        <v>3.467650444889649</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>3.378304057382122</v>
+        <v>3.57587175109495</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>3.462845691831157</v>
+        <v>3.685255089613942</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>3.549463313396216</v>
+        <v>3.801911489017152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>3.634260289503489</v>
+        <v>3.915940142481876</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>3.721744393459504</v>
+        <v>4.032989079754617</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>3.804866783613384</v>
+        <v>4.15037136012204</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>3.895848174106995</v>
+        <v>4.269229198769102</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>3.987782329945922</v>
+        <v>4.390016480113937</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>4.081864625766676</v>
+        <v>4.503364400421982</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>4.186065050897928</v>
+        <v>4.615187538225249</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>4.292069417417588</v>
+        <v>4.7285038493805</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>4.398174187150796</v>
+        <v>4.840705030137011</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>4.503967716160393</v>
+        <v>4.943539298727567</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>4.611513870997473</v>
+        <v>5.04276107155414</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>4.720707543845393</v>
+        <v>5.149660713806242</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>4.830977757853618</v>
+        <v>5.258604195117003</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>4.939522458085083</v>
+        <v>5.370164182834299</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>5.046545368990595</v>
+        <v>5.479722294107802</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>5.154442102774368</v>
+        <v>5.590292104953363</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>5.26096405617846</v>
+        <v>5.697398151604813</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>5.361390902256107</v>
+        <v>5.810630403408716</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>5.463665312936752</v>
+        <v>5.923662590652309</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>5.557627108131595</v>
+        <v>6.024646868828874</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>5.646248022272926</v>
+        <v>6.125314856529002</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>5.733560188151462</v>
+        <v>6.230742798834278</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>5.817560129026177</v>
+        <v>6.339411051090986</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>5.899451954597545</v>
+        <v>6.451100825421955</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>5.980994475102967</v>
+        <v>6.565844621912058</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>6.064533840287132</v>
+        <v>6.679198503866608</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1321,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>6.147093930749616</v>
+        <v>6.780739254869509</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1332,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>6.234549224067079</v>
+        <v>6.885912759619528</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1343,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>6.321440471548613</v>
+        <v>6.983966263203978</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>6.406508227396405</v>
+        <v>7.080393134890433</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1365,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>6.478600374263913</v>
+        <v>7.171839426927178</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1376,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>6.552573566419376</v>
+        <v>7.27434369080663</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1387,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>6.636853086317839</v>
+        <v>7.373197993775495</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1398,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>6.714592292553951</v>
+        <v>7.469635349729906</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1409,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>6.805167112635522</v>
+        <v>7.556711073241363</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>6.896423774270391</v>
+        <v>7.650125736995875</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1431,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>6.990450856611437</v>
+        <v>7.739323981718141</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1442,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>7.089766465213634</v>
+        <v>7.830728060331862</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1453,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>7.185973828258186</v>
+        <v>7.925037580393161</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1464,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>7.288915200751341</v>
+        <v>8.025410588014619</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1475,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>7.391632364067011</v>
+        <v>8.121511185137784</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1486,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>7.486313631175952</v>
+        <v>8.223520513886497</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1497,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>7.57390239816642</v>
+        <v>8.331820390542291</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1508,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>7.65804538407959</v>
+        <v>8.430560263555329</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1519,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>7.753859599177416</v>
+        <v>8.532101633442657</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1530,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>7.847954082093303</v>
+        <v>8.629340434196719</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1541,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>7.935129859657902</v>
+        <v>8.716709127554134</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1552,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>8.015314496777957</v>
+        <v>8.811926660046739</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1563,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>8.102336083440457</v>
+        <v>8.905737502954315</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1574,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>8.188448512988316</v>
+        <v>8.990088690310007</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1585,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>8.276388296335714</v>
+        <v>9.077832185099046</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1596,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>8.35927156976684</v>
+        <v>9.16370447422965</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1607,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>8.455512137028496</v>
+        <v>9.253226995401857</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1618,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>8.551118353107897</v>
+        <v>9.346960536665634</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1629,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>8.642301521362302</v>
+        <v>9.440380021931938</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1640,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>8.740970474072109</v>
+        <v>9.532208421586587</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1651,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>8.837324943250403</v>
+        <v>9.634646472221592</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1662,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>8.930487563277442</v>
+        <v>9.728850128721495</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1673,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>9.024089616679033</v>
+        <v>9.805445616909385</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1684,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>9.114282515102152</v>
+        <v>9.889016384198131</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1695,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>9.205514820536143</v>
+        <v>9.958835831005759</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1706,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>9.311956953998589</v>
+        <v>10.03486549738972</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1717,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>9.428569583852317</v>
+        <v>10.11018309064745</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1728,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>9.54516025477678</v>
+        <v>10.19147512083392</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1739,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>9.659365098863734</v>
+        <v>10.27655974450174</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1750,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>9.771654656362628</v>
+        <v>10.35989806612286</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1761,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>9.880713731822741</v>
+        <v>10.42737299306076</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1772,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>9.989471694082066</v>
+        <v>10.50661436578258</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1783,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>10.10157716313816</v>
+        <v>10.59618702498004</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1794,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>10.21713983857721</v>
+        <v>10.69778432390264</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1805,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>10.34086498616073</v>
+        <v>10.79958843216868</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1816,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>10.47623533068616</v>
+        <v>10.88916268958478</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1827,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>10.61100393404702</v>
+        <v>10.98658244996839</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1838,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>10.75625688194152</v>
+        <v>11.08213056064621</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1849,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>10.89848854972374</v>
+        <v>11.18200470400428</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1860,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>11.02680540850289</v>
+        <v>11.28763018480786</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1871,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>11.14383936808092</v>
+        <v>11.39195941539178</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1882,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>11.2645773712481</v>
+        <v>11.49588651361257</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1893,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>11.37828873143299</v>
+        <v>11.59672676305396</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1904,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>11.49250381547966</v>
+        <v>11.70108931356853</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1915,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>11.59084940883386</v>
+        <v>11.81830185547826</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1926,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>11.69245126761999</v>
+        <v>11.93414772592158</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1937,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>11.79064955017009</v>
+        <v>12.05699533425299</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1948,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>11.88827499305149</v>
+        <v>12.17339669172688</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1959,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>11.98495845607781</v>
+        <v>12.27644878788342</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1970,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>12.07541298358169</v>
+        <v>12.39098443447432</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1981,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>12.16998530395441</v>
+        <v>12.49796716390919</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1992,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>12.2788057750144</v>
+        <v>12.59673584444118</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2003,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>12.38721354361942</v>
+        <v>12.69764580278041</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2014,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>12.50538732531475</v>
+        <v>12.79489599520074</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2025,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>12.61900912037826</v>
+        <v>12.88626530626418</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2036,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>12.73500365348901</v>
+        <v>12.97306604525195</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2047,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>12.84828706171731</v>
+        <v>13.04597031667813</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2058,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>12.95127997726702</v>
+        <v>13.10967964246765</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2069,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>13.05417153304757</v>
+        <v>13.16942146256775</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2080,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>13.15166148794847</v>
+        <v>13.22627113259049</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2091,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>13.25163362962674</v>
+        <v>13.2958002400968</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2102,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>13.35837783484083</v>
+        <v>13.37085301150295</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2113,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>13.47690262888612</v>
+        <v>13.44864158680324</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2124,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>13.59335561349478</v>
+        <v>13.52692379137615</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2135,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>13.70044119412384</v>
+        <v>13.61646082096622</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2146,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>13.80453026719735</v>
+        <v>13.71011625913694</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2157,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>13.90433190941125</v>
+        <v>13.80565558067435</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2168,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>14.01507449640017</v>
+        <v>13.90006079006109</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2179,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>14.1144797646882</v>
+        <v>13.99500413664914</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2190,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>14.21503070666535</v>
+        <v>14.12650494256896</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2201,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>14.32462890471835</v>
+        <v>14.27212823595255</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2212,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>14.41152152256992</v>
+        <v>14.40401990035877</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2223,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>14.49940085184561</v>
+        <v>14.53151486562402</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2234,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>14.59362917024294</v>
+        <v>14.65499239895831</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2245,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>14.68921442997339</v>
+        <v>14.76618591154801</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2256,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>14.78292763653928</v>
+        <v>14.87451113015511</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2267,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>14.86847687546782</v>
+        <v>14.98604242671265</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2278,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>14.95775091770601</v>
+        <v>15.08267868617323</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2289,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>15.06106236628749</v>
+        <v>15.18790852445208</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2300,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>15.15117602148942</v>
+        <v>15.28853793255082</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2311,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>15.2434707735499</v>
+        <v>15.40190878378046</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2322,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>15.32909588467888</v>
+        <v>15.5093299842529</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2333,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>15.41524991458254</v>
+        <v>15.61628712372555</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2344,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>15.49768090038542</v>
+        <v>15.73115163193459</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2355,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>15.58130837565833</v>
+        <v>15.84889583051367</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2366,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>15.65205936117703</v>
+        <v>15.95470106642571</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2377,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>15.72644746164859</v>
+        <v>16.07007570075998</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2388,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>15.80576519855456</v>
+        <v>16.18084730501598</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2399,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>15.89003448849797</v>
+        <v>16.29049123719508</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2410,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>15.97493176965754</v>
+        <v>16.39145438384377</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2421,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>16.07366091520425</v>
+        <v>16.4902284201984</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2432,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>16.17510565212632</v>
+        <v>16.58032915899913</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2443,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>16.26411607510387</v>
+        <v>16.68089229868537</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2454,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>16.34949379706607</v>
+        <v>16.79041113306839</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2465,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>16.43472547208379</v>
+        <v>16.90953048767106</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2476,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>16.5115086903137</v>
+        <v>17.01875983395951</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2486,8 +2483,8 @@
       <c r="B191">
         <v>16.90015737913055</v>
       </c>
-      <c r="C191" t="s">
-        <v>3</v>
+      <c r="C191">
+        <v>17.13079588439035</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2498,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>16.58375961948672</v>
+        <v>17.24405283525408</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2509,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>16.66042007689497</v>
+        <v>17.36797702902803</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2520,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>16.73291909123467</v>
+        <v>17.50063243161669</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2531,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>16.79873420969811</v>
+        <v>17.62861379599995</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2542,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>16.86468504698581</v>
+        <v>17.75812998491127</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2553,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>16.93430174354904</v>
+        <v>17.87536267119224</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2564,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>17.00579712383342</v>
+        <v>17.9999955455144</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2575,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>17.08274312371975</v>
+        <v>18.12928972471693</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2586,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>17.1510219040349</v>
+        <v>18.26790483199137</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2597,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>17.21308739790581</v>
+        <v>18.41627444476441</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2608,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>17.2952792728425</v>
+        <v>18.55745078681258</v>
       </c>
     </row>
   </sheetData>

--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -427,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.009731657581084893</v>
+        <v>0.009724257528183625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.02156014287236437</v>
+        <v>0.02144460424224161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.03768382602001703</v>
+        <v>0.03744632724553153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.05781172450443253</v>
+        <v>0.05778388190689589</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.08162439036612</v>
+        <v>0.08216824941269596</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.1093521051619864</v>
+        <v>0.110294072178542</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.1406702711802964</v>
+        <v>0.1421245472343301</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.1751674773806303</v>
+        <v>0.1775116640856417</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.2123469949122792</v>
+        <v>0.2161715602725892</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.2533501742200397</v>
+        <v>0.2575583872026037</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>0.2976232721880532</v>
       </c>
       <c r="C14">
-        <v>0.2971163533657147</v>
+        <v>0.3022902891392489</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.3444042309001714</v>
+        <v>0.3497464165400521</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.3946886411054428</v>
+        <v>0.4002738273716254</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.4476435309737083</v>
+        <v>0.4529907502966205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.501599096707062</v>
+        <v>0.5081269921111053</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.5561866564044943</v>
+        <v>0.5663310541031631</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.6142933550830391</v>
+        <v>0.6271542327419014</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.6760482842219291</v>
+        <v>0.6902788923706575</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.739843136319236</v>
+        <v>0.755906401185948</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.8037372037644451</v>
+        <v>0.8224886157253744</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.8690482440280916</v>
+        <v>0.8910914312302073</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.9338353316439498</v>
+        <v>0.9598439521464555</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>0.998029962431613</v>
+        <v>1.031025359067599</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>1.063362409418433</v>
+        <v>1.10283734469397</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>1.128904782005559</v>
+        <v>1.177061907495303</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>1.197160354906182</v>
+        <v>1.252422469517566</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>1.266980976272639</v>
+        <v>1.330517631338967</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>1.337887734037321</v>
+        <v>1.409705400839148</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>1.40723283817489</v>
+        <v>1.491684408097173</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>1.477308001058705</v>
+        <v>1.573720796840187</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>1.550967751996789</v>
+        <v>1.658217188575225</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>1.625303152704055</v>
+        <v>1.744595800888833</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>1.698424672798172</v>
+        <v>1.830173218824362</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>1.777046226429493</v>
+        <v>1.917100797247868</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>1.860729664164077</v>
+        <v>2.003943324695804</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>1.945866435938964</v>
+        <v>2.090271055589285</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>2.030446744159201</v>
+        <v>2.176272454910982</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>2.117540080702551</v>
+        <v>2.26357705520629</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>2.203428214590371</v>
+        <v>2.351799188887287</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>2.287474030024702</v>
+        <v>2.436381270782629</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>2.372257039862484</v>
+        <v>2.520200172120676</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>2.457504730756342</v>
+        <v>2.606243641990876</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>2.548055981525347</v>
+        <v>2.69333738756281</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>2.640630341330711</v>
+        <v>2.780928906539828</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>2.737946201843346</v>
+        <v>2.869182409016132</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>2.838180821096673</v>
+        <v>2.958506218885113</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>2.938804644660234</v>
+        <v>3.048417806223102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>3.044817511974866</v>
+        <v>3.140191935509133</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>3.148844875902336</v>
+        <v>3.232924306798686</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>3.255664089039995</v>
+        <v>3.323844471704691</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>3.361769739254524</v>
+        <v>3.415482583736559</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>3.467650444889649</v>
+        <v>3.506417865303646</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>3.57587175109495</v>
+        <v>3.597644258881152</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>3.685255089613942</v>
+        <v>3.688914325308634</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>3.801911489017152</v>
+        <v>3.780763563747684</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>3.915940142481876</v>
+        <v>3.874043222208976</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>4.032989079754617</v>
+        <v>3.965429216372899</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>4.15037136012204</v>
+        <v>4.058463577056886</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>4.269229198769102</v>
+        <v>4.152943599672334</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>4.390016480113937</v>
+        <v>4.249818486575712</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>4.503364400421982</v>
+        <v>4.345155940510487</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>4.615187538225249</v>
+        <v>4.438352344949086</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>4.7285038493805</v>
+        <v>4.529859470951058</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>4.840705030137011</v>
+        <v>4.621793769288242</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>4.943539298727567</v>
+        <v>4.714973547634107</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>5.04276107155414</v>
+        <v>4.809313100244205</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>5.149660713806242</v>
+        <v>4.902477016789499</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>5.258604195117003</v>
+        <v>4.995565923423733</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>5.370164182834299</v>
+        <v>5.091154165804626</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>5.479722294107802</v>
+        <v>5.189498350435025</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>5.590292104953363</v>
+        <v>5.284226673046882</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>5.697398151604813</v>
+        <v>5.376267473830266</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>5.810630403408716</v>
+        <v>5.467074595540405</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>5.923662590652309</v>
+        <v>5.559131800435543</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>6.024646868828874</v>
+        <v>5.65224506954517</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>6.125314856529002</v>
+        <v>5.747443261510224</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>6.230742798834278</v>
+        <v>5.845659906962736</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>6.339411051090986</v>
+        <v>5.947534050829064</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>6.451100825421955</v>
+        <v>6.048200252504668</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>6.565844621912058</v>
+        <v>6.147345947297457</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>6.679198503866608</v>
+        <v>6.245447660201931</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>6.780739254869509</v>
+        <v>6.34410975869975</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>6.885912759619528</v>
+        <v>6.444047391195161</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>6.983966263203978</v>
+        <v>6.541875736740604</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>7.080393134890433</v>
+        <v>6.638226132674795</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>7.171839426927178</v>
+        <v>6.734201680307836</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>7.27434369080663</v>
+        <v>6.833960591538021</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>7.373197993775495</v>
+        <v>6.932830035159789</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>7.469635349729906</v>
+        <v>7.031563460333587</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>7.556711073241363</v>
+        <v>7.130929398259287</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>7.650125736995875</v>
+        <v>7.23254860987111</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>7.739323981718141</v>
+        <v>7.333392885532564</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>7.830728060331862</v>
+        <v>7.432334713474281</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>7.925037580393161</v>
+        <v>7.529572912428689</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>8.025410588014619</v>
+        <v>7.630143814610141</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>8.121511185137784</v>
+        <v>7.733917239597691</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>8.223520513886497</v>
+        <v>7.835430399284645</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>8.331820390542291</v>
+        <v>7.939500245321316</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>8.430560263555329</v>
+        <v>8.043208539860203</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>8.532101633442657</v>
+        <v>8.144519846688464</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>8.629340434196719</v>
+        <v>8.243075358814693</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>8.716709127554134</v>
+        <v>8.339820701788785</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>8.811926660046739</v>
+        <v>8.438479420040828</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>8.905737502954315</v>
+        <v>8.539412731798702</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>8.990088690310007</v>
+        <v>8.642840908214891</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>9.077832185099046</v>
+        <v>8.741533230750942</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>9.16370447422965</v>
+        <v>8.840243621730171</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>9.253226995401857</v>
+        <v>8.938287908951109</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>9.346960536665634</v>
+        <v>9.032946032736616</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>9.440380021931938</v>
+        <v>9.127837366679461</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>9.532208421586587</v>
+        <v>9.221325980553782</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>9.634646472221592</v>
+        <v>9.314834982161075</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>9.728850128721495</v>
+        <v>9.409676495237642</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>9.805445616909385</v>
+        <v>9.502753467671694</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>9.889016384198131</v>
+        <v>9.596318808659433</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>9.958835831005759</v>
+        <v>9.688272972720238</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>10.03486549738972</v>
+        <v>9.779430055706381</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>10.11018309064745</v>
+        <v>9.867059025297197</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>10.19147512083392</v>
+        <v>9.955222003502133</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>10.27655974450174</v>
+        <v>10.04540152245216</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>10.35989806612286</v>
+        <v>10.13801513163578</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>10.42737299306076</v>
+        <v>10.23432284821385</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>10.50661436578258</v>
+        <v>10.32558665585756</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>10.59618702498004</v>
+        <v>10.42262599286757</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>10.69778432390264</v>
+        <v>10.52127474986211</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>10.79958843216868</v>
+        <v>10.61923411595856</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>10.88916268958478</v>
+        <v>10.71474060227984</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>10.98658244996839</v>
+        <v>10.81225809073052</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>11.08213056064621</v>
+        <v>10.9096621442703</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>11.18200470400428</v>
+        <v>11.00746308611904</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>11.28763018480786</v>
+        <v>11.10412642450218</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>11.39195941539178</v>
+        <v>11.19825304749505</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>11.49588651361257</v>
+        <v>11.2928365754331</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>11.59672676305396</v>
+        <v>11.38551460620973</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>11.70108931356853</v>
+        <v>11.47564695813802</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>11.81830185547826</v>
+        <v>11.56254942320276</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>11.93414772592158</v>
+        <v>11.65196765004221</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>12.05699533425299</v>
+        <v>11.74971540460277</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>12.17339669172688</v>
+        <v>11.84644482140412</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>12.27644878788342</v>
+        <v>11.94137449214072</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>12.39098443447432</v>
+        <v>12.03529777634292</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>12.49796716390919</v>
+        <v>12.12745141949621</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>12.59673584444118</v>
+        <v>12.22626132868716</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>12.69764580278041</v>
+        <v>12.32207644267885</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>12.79489599520074</v>
+        <v>12.42536432822964</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>12.88626530626418</v>
+        <v>12.53042475536104</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>12.97306604525195</v>
+        <v>12.63451441085997</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>13.04597031667813</v>
+        <v>12.73835547248119</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>13.10967964246765</v>
+        <v>12.83892308365537</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>13.16942146256775</v>
+        <v>12.94362652361573</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>13.22627113259049</v>
+        <v>13.04378216124469</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>13.2958002400968</v>
+        <v>13.14721862344005</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>13.37085301150295</v>
+        <v>13.25093005594334</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>13.44864158680324</v>
+        <v>13.35401756544281</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>13.52692379137615</v>
+        <v>13.45477969229965</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>13.61646082096622</v>
+        <v>13.55329129900252</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>13.71011625913694</v>
+        <v>13.65569377295964</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>13.80565558067435</v>
+        <v>13.76103427876065</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>13.90006079006109</v>
+        <v>13.86546185805098</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>13.99500413664914</v>
+        <v>13.96923564561946</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>14.12650494256896</v>
+        <v>14.06868307992873</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>14.27212823595255</v>
+        <v>14.17124903699405</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>14.40401990035877</v>
+        <v>14.27387029477751</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>14.53151486562402</v>
+        <v>14.37987588555297</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>14.65499239895831</v>
+        <v>14.47997611755064</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>14.76618591154801</v>
+        <v>14.57447448135286</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>14.87451113015511</v>
+        <v>14.66853287684675</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>14.98604242671265</v>
+        <v>14.76514251714986</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>15.08267868617323</v>
+        <v>14.86230994425944</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>15.18790852445208</v>
+        <v>14.95898078327066</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>15.28853793255082</v>
+        <v>15.05765343061471</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>15.40190878378046</v>
+        <v>15.15379646021133</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>15.5093299842529</v>
+        <v>15.24844561345033</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>15.61628712372555</v>
+        <v>15.3491854488598</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>15.73115163193459</v>
+        <v>15.4534489116466</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>15.84889583051367</v>
+        <v>15.55841354823765</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>15.95470106642571</v>
+        <v>15.66498598061977</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>16.07007570075998</v>
+        <v>15.77134775685724</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>16.18084730501598</v>
+        <v>15.87194485648405</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>16.29049123719508</v>
+        <v>15.97444920713459</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>16.39145438384377</v>
+        <v>16.07705831266041</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>16.4902284201984</v>
+        <v>16.18109684893081</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>16.58032915899913</v>
+        <v>16.28365477203469</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>16.68089229868537</v>
+        <v>16.37705037655361</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>16.79041113306839</v>
+        <v>16.47481667683656</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>16.90953048767106</v>
+        <v>16.56670456231802</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>17.01875983395951</v>
+        <v>16.6603453724686</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>16.90015737913055</v>
       </c>
       <c r="C191">
-        <v>17.13079588439035</v>
+        <v>16.76271514698804</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>17.24405283525408</v>
+        <v>16.87150207898208</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>17.36797702902803</v>
+        <v>16.98488598051767</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>17.50063243161669</v>
+        <v>17.10542415033393</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>17.62861379599995</v>
+        <v>17.22419429832619</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>17.75812998491127</v>
+        <v>17.34267331970272</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>17.87536267119224</v>
+        <v>17.45632195022273</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>17.9999955455144</v>
+        <v>17.57183987939964</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>18.12928972471693</v>
+        <v>17.68731443234408</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>18.26790483199137</v>
+        <v>17.80548234547943</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>18.41627444476441</v>
+        <v>17.92873201698874</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>18.55745078681258</v>
+        <v>18.04430730407335</v>
       </c>
     </row>
   </sheetData>

--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -427,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.009724257528183625</v>
+        <v>0.009764374442686428</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.02144460424224161</v>
+        <v>0.0215492283826515</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.03744632724553153</v>
+        <v>0.03761296481598453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.05778388190689589</v>
+        <v>0.05773700090037102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.08216824941269596</v>
+        <v>0.08178270660511414</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.110294072178542</v>
+        <v>0.1094644863121297</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.1421245472343301</v>
+        <v>0.1406859561980342</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.1775116640856417</v>
+        <v>0.1753187707847842</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.2161715602725892</v>
+        <v>0.212988577504957</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.2575583872026037</v>
+        <v>0.2534114961788754</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>0.2976232721880532</v>
       </c>
       <c r="C14">
-        <v>0.3022902891392489</v>
+        <v>0.2967179095413726</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.3497464165400521</v>
+        <v>0.3428153502364119</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.4002738273716254</v>
+        <v>0.3914905816772996</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.4529907502966205</v>
+        <v>0.4420685954796356</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.5081269921111053</v>
+        <v>0.4948596030823904</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.5663310541031631</v>
+        <v>0.5490863389153169</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.6271542327419014</v>
+        <v>0.6049344827298195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.6902788923706575</v>
+        <v>0.6636864267642368</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.755906401185948</v>
+        <v>0.7242109924414881</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.8224886157253744</v>
+        <v>0.7871142732790487</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.8910914312302073</v>
+        <v>0.8516437300009922</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.9598439521464555</v>
+        <v>0.9177995316873249</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>1.031025359067599</v>
+        <v>0.9857037642009377</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>1.10283734469397</v>
+        <v>1.055869921134455</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>1.177061907495303</v>
+        <v>1.128359177062147</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>1.252422469517566</v>
+        <v>1.20330106591217</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>1.330517631338967</v>
+        <v>1.279503589659629</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>1.409705400839148</v>
+        <v>1.357266829006439</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>1.491684408097173</v>
+        <v>1.435226969107084</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>1.573720796840187</v>
+        <v>1.51341489902897</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>1.658217188575225</v>
+        <v>1.592650155375509</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>1.744595800888833</v>
+        <v>1.67199267705986</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>1.830173218824362</v>
+        <v>1.751418249830069</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>1.917100797247868</v>
+        <v>1.830693195452586</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>2.003943324695804</v>
+        <v>1.911332719507737</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>2.090271055589285</v>
+        <v>1.994242713970876</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>2.176272454910982</v>
+        <v>2.079264432079217</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>2.26357705520629</v>
+        <v>2.166764378760166</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>2.351799188887287</v>
+        <v>2.254397963990263</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>2.436381270782629</v>
+        <v>2.341194064631165</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>2.520200172120676</v>
+        <v>2.430198913422585</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>2.606243641990876</v>
+        <v>2.519769856747016</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>2.69333738756281</v>
+        <v>2.611668148211874</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>2.780928906539828</v>
+        <v>2.704219220851991</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>2.869182409016132</v>
+        <v>2.79818949798583</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>2.958506218885113</v>
+        <v>2.892693961422349</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>3.048417806223102</v>
+        <v>2.986632815067804</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>3.140191935509133</v>
+        <v>3.080065514295103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>3.232924306798686</v>
+        <v>3.175545099112409</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>3.323844471704691</v>
+        <v>3.270599850590896</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>3.415482583736559</v>
+        <v>3.366108204075895</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>3.506417865303646</v>
+        <v>3.460116918975426</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>3.597644258881152</v>
+        <v>3.553632632114085</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>3.688914325308634</v>
+        <v>3.647717142297222</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>3.780763563747684</v>
+        <v>3.742586537011237</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>3.874043222208976</v>
+        <v>3.836533035463772</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>3.965429216372899</v>
+        <v>3.930184904084003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>4.058463577056886</v>
+        <v>4.02197043023696</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>4.152943599672334</v>
+        <v>4.112833107507608</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>4.249818486575712</v>
+        <v>4.2052633213952</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>4.345155940510487</v>
+        <v>4.296757519303133</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>4.438352344949086</v>
+        <v>4.389203681080273</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>4.529859470951058</v>
+        <v>4.48486654117352</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>4.621793769288242</v>
+        <v>4.580123777459661</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>4.714973547634107</v>
+        <v>4.673995342140144</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>4.809313100244205</v>
+        <v>4.76797222381064</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>4.902477016789499</v>
+        <v>4.863435495291911</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>4.995565923423733</v>
+        <v>4.957446998185795</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>5.091154165804626</v>
+        <v>5.053845502747697</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>5.189498350435025</v>
+        <v>5.149007373552093</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>5.284226673046882</v>
+        <v>5.243558599021839</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>5.376267473830266</v>
+        <v>5.338717049217992</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>5.467074595540405</v>
+        <v>5.432016943534971</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>5.559131800435543</v>
+        <v>5.524013950539717</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>5.65224506954517</v>
+        <v>5.61931254570487</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>5.747443261510224</v>
+        <v>5.715461009928634</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>5.845659906962736</v>
+        <v>5.814042945691527</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>5.947534050829064</v>
+        <v>5.914315345372083</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>6.048200252504668</v>
+        <v>6.018145795804263</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>6.147345947297457</v>
+        <v>6.120620336310553</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>6.245447660201931</v>
+        <v>6.222090758651102</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>6.34410975869975</v>
+        <v>6.323486587526951</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>6.444047391195161</v>
+        <v>6.427355564744395</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>6.541875736740604</v>
+        <v>6.527899799666858</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>6.638226132674795</v>
+        <v>6.628254548318795</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>6.734201680307836</v>
+        <v>6.727055105585507</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>6.833960591538021</v>
+        <v>6.824272393288985</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>6.932830035159789</v>
+        <v>6.92376678183673</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>7.031563460333587</v>
+        <v>7.025582900317208</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>7.130929398259287</v>
+        <v>7.125573453877672</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>7.23254860987111</v>
+        <v>7.227155189626295</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>7.333392885532564</v>
+        <v>7.32755873211287</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>7.432334713474281</v>
+        <v>7.430395869057336</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>7.529572912428689</v>
+        <v>7.534213318347108</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>7.630143814610141</v>
+        <v>7.633891107524033</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>7.733917239597691</v>
+        <v>7.729923188144431</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>7.835430399284645</v>
+        <v>7.825320777596429</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>7.939500245321316</v>
+        <v>7.918405149317591</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>8.043208539860203</v>
+        <v>8.01249679402947</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>8.144519846688464</v>
+        <v>8.110226975047501</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>8.243075358814693</v>
+        <v>8.205100319451169</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>8.339820701788785</v>
+        <v>8.300261036435611</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>8.438479420040828</v>
+        <v>8.394670131443515</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>8.539412731798702</v>
+        <v>8.489745471068236</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>8.642840908214891</v>
+        <v>8.585526905221245</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>8.741533230750942</v>
+        <v>8.681753276075268</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>8.840243621730171</v>
+        <v>8.777695175831116</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>8.938287908951109</v>
+        <v>8.873498382942341</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>9.032946032736616</v>
+        <v>8.970729035630301</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>9.127837366679461</v>
+        <v>9.068170159498472</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>9.221325980553782</v>
+        <v>9.162333879299316</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>9.314834982161075</v>
+        <v>9.256380699398218</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>9.409676495237642</v>
+        <v>9.350182972244877</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>9.502753467671694</v>
+        <v>9.439450882449425</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>9.596318808659433</v>
+        <v>9.528439170446099</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>9.688272972720238</v>
+        <v>9.616736907033886</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>9.779430055706381</v>
+        <v>9.703389944417101</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>9.867059025297197</v>
+        <v>9.786689510218453</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>9.955222003502133</v>
+        <v>9.870114452831642</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>10.04540152245216</v>
+        <v>9.955344501095437</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>10.13801513163578</v>
+        <v>10.04429073305594</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>10.23432284821385</v>
+        <v>10.13470156884441</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>10.32558665585756</v>
+        <v>10.22575495660536</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>10.42262599286757</v>
+        <v>10.31683965876509</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>10.52127474986211</v>
+        <v>10.40820073930347</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>10.61923411595856</v>
+        <v>10.49982680659913</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>10.71474060227984</v>
+        <v>10.58957142194707</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>10.81225809073052</v>
+        <v>10.68222048771384</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>10.9096621442703</v>
+        <v>10.77448736695018</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>11.00746308611904</v>
+        <v>10.86667756935048</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>11.10412642450218</v>
+        <v>10.96096399540543</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>11.19825304749505</v>
+        <v>11.05696232348877</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>11.2928365754331</v>
+        <v>11.15067234900832</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>11.38551460620973</v>
+        <v>11.24072941851295</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>11.47564695813802</v>
+        <v>11.32960941425461</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>11.56254942320276</v>
+        <v>11.41639596827327</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>11.65196765004221</v>
+        <v>11.50288699501825</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>11.74971540460277</v>
+        <v>11.5911435267622</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>11.84644482140412</v>
+        <v>11.67853037520477</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>11.94137449214072</v>
+        <v>11.76647270652681</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>12.03529777634292</v>
+        <v>11.85126699025768</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>12.12745141949621</v>
+        <v>11.93437815069134</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>12.22626132868716</v>
+        <v>12.01844313926533</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>12.32207644267885</v>
+        <v>12.10305977349151</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>12.42536432822964</v>
+        <v>12.1928493232805</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>12.53042475536104</v>
+        <v>12.27660467083073</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>12.63451441085997</v>
+        <v>12.35940821590697</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>12.73835547248119</v>
+        <v>12.44366174676249</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>12.83892308365537</v>
+        <v>12.53125258877511</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>12.94362652361573</v>
+        <v>12.6182154565193</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>13.04378216124469</v>
+        <v>12.71230191683757</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>13.14721862344005</v>
+        <v>12.80803801252769</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>13.25093005594334</v>
+        <v>12.90507703485914</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>13.35401756544281</v>
+        <v>13.00402348638781</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>13.45477969229965</v>
+        <v>13.10211873547402</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>13.55329129900252</v>
+        <v>13.20075154369818</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>13.65569377295964</v>
+        <v>13.30119201877389</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>13.76103427876065</v>
+        <v>13.4026714564419</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>13.86546185805098</v>
+        <v>13.50034744731851</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>13.96923564561946</v>
+        <v>13.59529737924841</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>14.06868307992873</v>
+        <v>13.6899453248426</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>14.17124903699405</v>
+        <v>13.77815974321872</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>14.27387029477751</v>
+        <v>13.87063365719049</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>14.37987588555297</v>
+        <v>13.96316005378328</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>14.47997611755064</v>
+        <v>14.05404793095915</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>14.57447448135286</v>
+        <v>14.14432744701907</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>14.66853287684675</v>
+        <v>14.23487669236008</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>14.76514251714986</v>
+        <v>14.32354862349119</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>14.86230994425944</v>
+        <v>14.418654317642</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>14.95898078327066</v>
+        <v>14.51398707754502</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>15.05765343061471</v>
+        <v>14.6090721149008</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>15.15379646021133</v>
+        <v>14.70390066621727</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>15.24844561345033</v>
+        <v>14.8026492726285</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>15.3491854488598</v>
+        <v>14.9023016504586</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>15.4534489116466</v>
+        <v>15.00046898997859</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>15.55841354823765</v>
+        <v>15.09904701224535</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>15.66498598061977</v>
+        <v>15.1915524726</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>15.77134775685724</v>
+        <v>15.28370119612768</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>15.87194485648405</v>
+        <v>15.3779970841807</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>15.97444920713459</v>
+        <v>15.4741543698923</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>16.07705831266041</v>
+        <v>15.57237097417673</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>16.18109684893081</v>
+        <v>15.67219651723555</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>16.28365477203469</v>
+        <v>15.76877794087872</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>16.37705037655361</v>
+        <v>15.87159741033224</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>16.47481667683656</v>
+        <v>15.97530710403532</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>16.56670456231802</v>
+        <v>16.08091116539057</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>16.6603453724686</v>
+        <v>16.19233342763203</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>16.90015737913055</v>
       </c>
       <c r="C191">
-        <v>16.76271514698804</v>
+        <v>16.29949528146077</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>16.87150207898208</v>
+        <v>16.41267030290956</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>16.98488598051767</v>
+        <v>16.52146049382485</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>17.10542415033393</v>
+        <v>16.63081172738521</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>17.22419429832619</v>
+        <v>16.73392997978733</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>17.34267331970272</v>
+        <v>16.83906093149868</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>17.45632195022273</v>
+        <v>16.94165097123996</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>17.57183987939964</v>
+        <v>17.04790973144757</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>17.68731443234408</v>
+        <v>17.15589426932403</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>17.80548234547943</v>
+        <v>17.2646745886772</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>17.92873201698874</v>
+        <v>17.37288175943135</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>18.04430730407335</v>
+        <v>17.48319434379392</v>
       </c>
     </row>
   </sheetData>

--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -427,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.009764374442686428</v>
+        <v>0.00878560919904809</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.0215492283826515</v>
+        <v>0.01763990336000434</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.03761296481598453</v>
+        <v>0.02791388803469015</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.05773700090037102</v>
+        <v>0.03914597648032975</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.08178270660511414</v>
+        <v>0.05010911626940852</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.1094644863121297</v>
+        <v>0.06076618351247165</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.1406859561980342</v>
+        <v>0.071615180289929</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.1753187707847842</v>
+        <v>0.0820871954407735</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.212988577504957</v>
+        <v>0.09106758365539509</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.2534114961788754</v>
+        <v>0.0986590525065361</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>0.2976232721880532</v>
       </c>
       <c r="C14">
-        <v>0.2967179095413726</v>
+        <v>0.1057811423396419</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.3428153502364119</v>
+        <v>0.1119530566309999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.3914905816772996</v>
+        <v>0.1178187723758293</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.4420685954796356</v>
+        <v>0.1236921727347812</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.4948596030823904</v>
+        <v>0.1281477435339107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.5490863389153169</v>
+        <v>0.1333107848195079</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.6049344827298195</v>
+        <v>0.1382922553624908</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.6636864267642368</v>
+        <v>0.1422176305282399</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.7242109924414881</v>
+        <v>0.1458894937587656</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.7871142732790487</v>
+        <v>0.1485582428590578</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.8516437300009922</v>
+        <v>0.1505592490687245</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.9177995316873249</v>
+        <v>0.1525012081302259</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>0.9857037642009377</v>
+        <v>0.1542242940635086</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>1.055869921134455</v>
+        <v>0.1555185563646166</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>1.128359177062147</v>
+        <v>0.155921483470101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>1.20330106591217</v>
+        <v>0.1573983540029121</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>1.279503589659629</v>
+        <v>0.158779307678483</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>1.357266829006439</v>
+        <v>0.1599222849955843</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>1.435226969107084</v>
+        <v>0.1599274277281699</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>1.51341489902897</v>
+        <v>0.1600218246873647</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>1.592650155375509</v>
+        <v>0.1601733270423134</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>1.67199267705986</v>
+        <v>0.1607265025551962</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>1.751418249830069</v>
+        <v>0.1611602632836112</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>1.830693195452586</v>
+        <v>0.1614729027821417</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>1.911332719507737</v>
+        <v>0.1615301439829503</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>1.994242713970876</v>
+        <v>0.1618006541914286</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>2.079264432079217</v>
+        <v>0.1620359341226862</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>2.166764378760166</v>
+        <v>0.162302284171273</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>2.254397963990263</v>
+        <v>0.1630063578898919</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>2.341194064631165</v>
+        <v>0.163310457943063</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>2.430198913422585</v>
+        <v>0.1624716488005847</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>2.519769856747016</v>
+        <v>0.1613114468399834</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>2.611668148211874</v>
+        <v>0.1609078022982006</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>2.704219220851991</v>
+        <v>0.1611072242900752</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>2.79818949798583</v>
+        <v>0.1618616622760173</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>2.892693961422349</v>
+        <v>0.162973963921389</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>2.986632815067804</v>
+        <v>0.1630015042296124</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>3.080065514295103</v>
+        <v>0.1634984561009809</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>3.175545099112409</v>
+        <v>0.1644432849314499</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>3.270599850590896</v>
+        <v>0.1653742741076255</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>3.366108204075895</v>
+        <v>0.1663454877172831</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>3.460116918975426</v>
+        <v>0.1666480547421834</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>3.553632632114085</v>
+        <v>0.1676541239468862</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>3.647717142297222</v>
+        <v>0.1685477997214688</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>3.742586537011237</v>
+        <v>0.1677809994680456</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>3.836533035463772</v>
+        <v>0.1663852842208756</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>3.930184904084003</v>
+        <v>0.165777599087067</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>4.02197043023696</v>
+        <v>0.1652140221772581</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>4.112833107507608</v>
+        <v>0.1646920749254976</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>4.2052633213952</v>
+        <v>0.164555703992487</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>4.296757519303133</v>
+        <v>0.1647962160861574</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>4.389203681080273</v>
+        <v>0.1665869645835208</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>4.48486654117352</v>
+        <v>0.1676914817999143</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>4.580123777459661</v>
+        <v>0.1679341544472869</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>4.673995342140144</v>
+        <v>0.1682905011774078</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>4.76797222381064</v>
+        <v>0.1690402441355317</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>4.863435495291911</v>
+        <v>0.16908651470713</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>4.957446998185795</v>
+        <v>0.1696385785747392</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>5.053845502747697</v>
+        <v>0.1698172400467191</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>5.149007373552093</v>
+        <v>0.1704760504174024</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>5.243558599021839</v>
+        <v>0.1696908501681237</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>5.338717049217992</v>
+        <v>0.1696668972329304</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>5.432016943534971</v>
+        <v>0.1706198939246768</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>5.524013950539717</v>
+        <v>0.1703866375464358</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>5.61931254570487</v>
+        <v>0.1698034063473605</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>5.715461009928634</v>
+        <v>0.169190359772805</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>5.814042945691527</v>
+        <v>0.1693450927372112</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>5.914315345372083</v>
+        <v>0.1681581410998196</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>6.018145795804263</v>
+        <v>0.1671321992309346</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>6.120620336310553</v>
+        <v>0.1665675091425781</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>6.222090758651102</v>
+        <v>0.1660458426844484</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>6.323486587526951</v>
+        <v>0.1653716231067811</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>6.427355564744395</v>
+        <v>0.1642888211480173</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>6.527899799666858</v>
+        <v>0.1629424383221244</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>6.628254548318795</v>
+        <v>0.1624974540295661</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>6.727055105585507</v>
+        <v>0.1628825334539284</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>6.824272393288985</v>
+        <v>0.1627618535610183</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>6.92376678183673</v>
+        <v>0.1624840865646699</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>7.025582900317208</v>
+        <v>0.1619844455513476</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>7.125573453877672</v>
+        <v>0.16154402070179</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>7.227155189626295</v>
+        <v>0.1613777058135605</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>7.32755873211287</v>
+        <v>0.1615363367619487</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>7.430395869057336</v>
+        <v>0.1620283128353682</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>7.534213318347108</v>
+        <v>0.1633429868081563</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>7.633891107524033</v>
+        <v>0.1642615532157029</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>7.729923188144431</v>
+        <v>0.1649684492874969</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>7.825320777596429</v>
+        <v>0.1658473256627086</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>7.918405149317591</v>
+        <v>0.1675755104094715</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>8.01249679402947</v>
+        <v>0.1689456357408397</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>8.110226975047501</v>
+        <v>0.1699169572773373</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>8.205100319451169</v>
+        <v>0.171628304191309</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>8.300261036435611</v>
+        <v>0.1729107192635843</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>8.394670131443515</v>
+        <v>0.1734635673376794</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>8.489745471068236</v>
+        <v>0.1728819441210485</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>8.585526905221245</v>
+        <v>0.1737842765429697</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>8.681753276075268</v>
+        <v>0.1737732309400402</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>8.777695175831116</v>
+        <v>0.1738773173084446</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>8.873498382942341</v>
+        <v>0.17281664141478</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>8.970729035630301</v>
+        <v>0.1720017309150978</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>9.068170159498472</v>
+        <v>0.1714958195809201</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>9.162333879299316</v>
+        <v>0.1705618194659395</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>9.256380699398218</v>
+        <v>0.1700583890893725</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>9.350182972244877</v>
+        <v>0.1697392008452818</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>9.439450882449425</v>
+        <v>0.1696720709837865</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>9.528439170446099</v>
+        <v>0.1702594047358094</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>9.616736907033886</v>
+        <v>0.1710383245320914</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>9.703389944417101</v>
+        <v>0.1712477261652448</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>9.786689510218453</v>
+        <v>0.1717403790781827</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>9.870114452831642</v>
+        <v>0.1721569189624212</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>9.955344501095437</v>
+        <v>0.1735784457907764</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>10.04429073305594</v>
+        <v>0.174759723545598</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>10.13470156884441</v>
+        <v>0.1751223365837041</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>10.22575495660536</v>
+        <v>0.1745239854603901</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>10.31683965876509</v>
+        <v>0.1755384168850248</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>10.40820073930347</v>
+        <v>0.1751195161012311</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>10.49982680659913</v>
+        <v>0.1738834526460733</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>10.58957142194707</v>
+        <v>0.1737641455347428</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>10.68222048771384</v>
+        <v>0.1739020499230994</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>10.77448736695018</v>
+        <v>0.1732010817179874</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>10.86667756935048</v>
+        <v>0.1714797574126983</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>10.96096399540543</v>
+        <v>0.1693816028620835</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>11.05696232348877</v>
+        <v>0.1683458600680302</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>11.15067234900832</v>
+        <v>0.1661536838636007</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>11.24072941851295</v>
+        <v>0.1637704497866593</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>11.32960941425461</v>
+        <v>0.1612928657852298</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>11.41639596827327</v>
+        <v>0.1590899766189891</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>11.50288699501825</v>
+        <v>0.1567818757748944</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>11.5911435267622</v>
+        <v>0.1546975798138235</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>11.67853037520477</v>
+        <v>0.1551161585669093</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>11.76647270652681</v>
+        <v>0.1567008134157369</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>11.85126699025768</v>
+        <v>0.1579123304354674</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>11.93437815069134</v>
+        <v>0.1594794679810595</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>12.01844313926533</v>
+        <v>0.1610479497590116</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>12.10305977349151</v>
+        <v>0.1618954581011907</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>12.1928493232805</v>
+        <v>0.1629927257760558</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>12.27660467083073</v>
+        <v>0.1641122674927038</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>12.35940821590697</v>
+        <v>0.1656351828887222</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>12.44366174676249</v>
+        <v>0.1668634589941126</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>12.53125258877511</v>
+        <v>0.1669937088572863</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>12.6182154565193</v>
+        <v>0.1674028994815472</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>12.71230191683757</v>
+        <v>0.1683111138017523</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>12.80803801252769</v>
+        <v>0.1693474728699976</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>12.90507703485914</v>
+        <v>0.1708265759798278</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>13.00402348638781</v>
+        <v>0.1719210879253189</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>13.10211873547402</v>
+        <v>0.1720996244982718</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>13.20075154369818</v>
+        <v>0.1723601403995868</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>13.30119201877389</v>
+        <v>0.1727006538384711</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>13.4026714564419</v>
+        <v>0.1730908959522516</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>13.50034744731851</v>
+        <v>0.1732721701773018</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>13.59529737924841</v>
+        <v>0.1736320808039539</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>13.6899453248426</v>
+        <v>0.1733930869030597</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>13.77815974321872</v>
+        <v>0.1728802003631158</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>13.87063365719049</v>
+        <v>0.1726180389700098</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>13.96316005378328</v>
+        <v>0.1718591597741046</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>14.05404793095915</v>
+        <v>0.1720677493815556</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>14.14432744701907</v>
+        <v>0.1726412648466004</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>14.23487669236008</v>
+        <v>0.1735631700211432</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>14.32354862349119</v>
+        <v>0.1731823624078601</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>14.418654317642</v>
+        <v>0.1730486300528239</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>14.51398707754502</v>
+        <v>0.172857897333578</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>14.6090721149008</v>
+        <v>0.1729171060122482</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>14.70390066621727</v>
+        <v>0.1724106206685961</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>14.8026492726285</v>
+        <v>0.171991947879028</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>14.9023016504586</v>
+        <v>0.172306207962095</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>15.00046898997859</v>
+        <v>0.1729242364646934</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>15.09904701224535</v>
+        <v>0.1728570738297795</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>15.1915524726</v>
+        <v>0.1718300322839537</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>15.28370119612768</v>
+        <v>0.1698870808622146</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>15.3779970841807</v>
+        <v>0.1681683429465114</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>15.4741543698923</v>
+        <v>0.1672949389280521</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>15.57237097417673</v>
+        <v>0.1670049190421039</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>15.67219651723555</v>
+        <v>0.1668973630783499</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>15.76877794087872</v>
+        <v>0.1677568804074426</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>15.87159741033224</v>
+        <v>0.1689595379883656</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>15.97530710403532</v>
+        <v>0.1698208545414726</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>16.08091116539057</v>
+        <v>0.1712280561498141</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>16.19233342763203</v>
+        <v>0.173190551726343</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>16.90015737913055</v>
       </c>
       <c r="C191">
-        <v>16.29949528146077</v>
+        <v>0.1750680038684923</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>16.41267030290956</v>
+        <v>0.1764207157913076</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>16.52146049382485</v>
+        <v>0.1771212881024317</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>16.63081172738521</v>
+        <v>0.177631498495938</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>16.73392997978733</v>
+        <v>0.1777693734938198</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>16.83906093149868</v>
+        <v>0.1778800365771651</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>16.94165097123996</v>
+        <v>0.1782048631330038</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>17.04790973144757</v>
+        <v>0.1792295752563274</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>17.15589426932403</v>
+        <v>0.1801542134609537</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>17.2646745886772</v>
+        <v>0.1789090732506517</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>17.37288175943135</v>
+        <v>0.1775143172406193</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>17.48319434379392</v>
+        <v>0.1766690856741217</v>
       </c>
     </row>
   </sheetData>

--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -427,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.00878560919904809</v>
+        <v>0.009753288441728696</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.01763990336000434</v>
+        <v>0.02157659858511547</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.02791388803469015</v>
+        <v>0.0377849253088377</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.03914597648032975</v>
+        <v>0.05812028643739596</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.05010911626940852</v>
+        <v>0.08231289993266075</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.06076618351247165</v>
+        <v>0.1101107626374209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.071615180289929</v>
+        <v>0.1413572371700808</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.0820871954407735</v>
+        <v>0.1758132597114231</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.09106758365539509</v>
+        <v>0.213531362051066</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.0986590525065361</v>
+        <v>0.2542871859734577</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>0.2976232721880532</v>
       </c>
       <c r="C14">
-        <v>0.1057811423396419</v>
+        <v>0.2980824994059056</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.1119530566309999</v>
+        <v>0.3441330044857458</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.1178187723758293</v>
+        <v>0.3932446638739931</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.1236921727347812</v>
+        <v>0.4449773431519968</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.1281477435339107</v>
+        <v>0.4987681814223643</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.1333107848195079</v>
+        <v>0.5550933730433075</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.1382922553624908</v>
+        <v>0.6139976142488555</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.1422176305282399</v>
+        <v>0.6745541167018773</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.1458894937587656</v>
+        <v>0.7374691439830344</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.1485582428590578</v>
+        <v>0.8017998987415691</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.1505592490687245</v>
+        <v>0.8679264410609109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.1525012081302259</v>
+        <v>0.9366483194812001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>0.1542242940635086</v>
+        <v>1.006951038414591</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>0.1555185563646166</v>
+        <v>1.079094312534609</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>0.155921483470101</v>
+        <v>1.152540731233806</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>0.1573983540029121</v>
+        <v>1.226309393504759</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>0.158779307678483</v>
+        <v>1.30142877373184</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>0.1599222849955843</v>
+        <v>1.377087506742659</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>0.1599274277281699</v>
+        <v>1.451951361756234</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>0.1600218246873647</v>
+        <v>1.528488935384992</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>0.1601733270423134</v>
+        <v>1.605886033647769</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>0.1607265025551962</v>
+        <v>1.684791714549768</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>0.1611602632836112</v>
+        <v>1.766427128453978</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>0.1614729027821417</v>
+        <v>1.850068774031568</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>0.1615301439829503</v>
+        <v>1.934943355299791</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>0.1618006541914286</v>
+        <v>2.020400043623249</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>0.1620359341226862</v>
+        <v>2.106714956667689</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>0.162302284171273</v>
+        <v>2.194006196836227</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>0.1630063578898919</v>
+        <v>2.281261571946917</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>0.163310457943063</v>
+        <v>2.368985090193066</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>0.1624716488005847</v>
+        <v>2.456820567529328</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>0.1613114468399834</v>
+        <v>2.545835954395754</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>0.1609078022982006</v>
+        <v>2.634234613249705</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>0.1611072242900752</v>
+        <v>2.725825304919247</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>0.1618616622760173</v>
+        <v>2.818972240099197</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>0.162973963921389</v>
+        <v>2.913025734881148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>0.1630015042296124</v>
+        <v>3.007044382615518</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>0.1634984561009809</v>
+        <v>3.101783469974173</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>0.1644432849314499</v>
+        <v>3.196765909754238</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>0.1653742741076255</v>
+        <v>3.292417848555297</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>0.1663454877172831</v>
+        <v>3.386997148009073</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>0.1666480547421834</v>
+        <v>3.484233884631472</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>0.1676541239468862</v>
+        <v>3.581537370759428</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>0.1685477997214688</v>
+        <v>3.675650844039735</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>0.1677809994680456</v>
+        <v>3.770374924849635</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>0.1663852842208756</v>
+        <v>3.864745806903871</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>0.165777599087067</v>
+        <v>3.961427760206349</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>0.1652140221772581</v>
+        <v>4.060040129570856</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>0.1646920749254976</v>
+        <v>4.157540562788473</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>0.164555703992487</v>
+        <v>4.253690681866249</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>0.1647962160861574</v>
+        <v>4.34976252190444</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>0.1665869645835208</v>
+        <v>4.445567513285054</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>0.1676914817999143</v>
+        <v>4.540033283819307</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>0.1679341544472869</v>
+        <v>4.636305740418603</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>0.1682905011774078</v>
+        <v>4.733326002505752</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>0.1690402441355317</v>
+        <v>4.829281572553685</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>0.16908651470713</v>
+        <v>4.92808018648923</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>0.1696385785747392</v>
+        <v>5.029435177514951</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>0.1698172400467191</v>
+        <v>5.132984571960407</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>0.1704760504174024</v>
+        <v>5.233743657854486</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>0.1696908501681237</v>
+        <v>5.334584048639293</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>0.1696668972329304</v>
+        <v>5.434030633064582</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>0.1706198939246768</v>
+        <v>5.534610045979209</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>0.1703866375464358</v>
+        <v>5.636414551632722</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>0.1698034063473605</v>
+        <v>5.737600592654746</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>0.169190359772805</v>
+        <v>5.838238762418049</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>0.1693450927372112</v>
+        <v>5.939462332274943</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>0.1681581410998196</v>
+        <v>6.040362256539602</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>0.1671321992309346</v>
+        <v>6.142296672777496</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>0.1665675091425781</v>
+        <v>6.242743397262635</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>0.1660458426844484</v>
+        <v>6.343388926739173</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>0.1653716231067811</v>
+        <v>6.442820551434512</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>0.1642888211480173</v>
+        <v>6.54199806931549</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>0.1629424383221244</v>
+        <v>6.642444631282885</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>0.1624974540295661</v>
+        <v>6.742172926395744</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>0.1628825334539284</v>
+        <v>6.843337769150001</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>0.1627618535610183</v>
+        <v>6.942168243712032</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>0.1624840865646699</v>
+        <v>7.038642118987839</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>0.1619844455513476</v>
+        <v>7.135013694498836</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>0.16154402070179</v>
+        <v>7.233128501390492</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>0.1613777058135605</v>
+        <v>7.332246337792009</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>0.1615363367619487</v>
+        <v>7.43389864162849</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>0.1620283128353682</v>
+        <v>7.536982371312396</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>0.1633429868081563</v>
+        <v>7.640948627536591</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>0.1642615532157029</v>
+        <v>7.746357369998607</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>0.1649684492874969</v>
+        <v>7.853735898449598</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>0.1658473256627086</v>
+        <v>7.959548978743338</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>0.1675755104094715</v>
+        <v>8.06647836357952</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>0.1689456357408397</v>
+        <v>8.172781888151736</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>0.1699169572773373</v>
+        <v>8.280765608787977</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>0.171628304191309</v>
+        <v>8.387800301224257</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>0.1729107192635843</v>
+        <v>8.493239859616766</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>0.1734635673376794</v>
+        <v>8.598519078563768</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>0.1728819441210485</v>
+        <v>8.700628490773145</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>0.1737842765429697</v>
+        <v>8.802098570257716</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>0.1737732309400402</v>
+        <v>8.906071375614323</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>0.1738773173084446</v>
+        <v>9.008814499444167</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>0.17281664141478</v>
+        <v>9.109550416528609</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>0.1720017309150978</v>
+        <v>9.211282297120452</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>0.1714958195809201</v>
+        <v>9.311879187490629</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>0.1705618194659395</v>
+        <v>9.416582383104572</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>0.1700583890893725</v>
+        <v>9.521891850989215</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>0.1697392008452818</v>
+        <v>9.627382337926939</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>0.1696720709837865</v>
+        <v>9.732817898636782</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>0.1702594047358094</v>
+        <v>9.838889890139484</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>0.1710383245320914</v>
+        <v>9.943144134795773</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>0.1712477261652448</v>
+        <v>10.04691939994323</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>0.1717403790781827</v>
+        <v>10.14923014534803</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>0.1721569189624212</v>
+        <v>10.24978726812698</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>0.1735784457907764</v>
+        <v>10.3543031051886</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>0.174759723545598</v>
+        <v>10.4587894662314</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>0.1751223365837041</v>
+        <v>10.5621545016005</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>0.1745239854603901</v>
+        <v>10.66402407495465</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>0.1755384168850248</v>
+        <v>10.76247371725452</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>0.1751195161012311</v>
+        <v>10.85918810972141</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>0.1738834526460733</v>
+        <v>10.9536872385345</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>0.1737641455347428</v>
+        <v>11.04609334826881</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>0.1739020499230994</v>
+        <v>11.13724717078817</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>0.1732010817179874</v>
+        <v>11.22607104465442</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>0.1714797574126983</v>
+        <v>11.31715298187858</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>0.1693816028620835</v>
+        <v>11.40786227100048</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>0.1683458600680302</v>
+        <v>11.49662622030412</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>0.1661536838636007</v>
+        <v>11.58696438994979</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>0.1637704497866593</v>
+        <v>11.68065592770288</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>0.1612928657852298</v>
+        <v>11.77598414573585</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>0.1590899766189891</v>
+        <v>11.87217648173922</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>0.1567818757748944</v>
+        <v>11.96628536354504</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>0.1546975798138235</v>
+        <v>12.05920621382399</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>0.1551161585669093</v>
+        <v>12.15212218231508</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>0.1567008134157369</v>
+        <v>12.2446912030152</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>0.1579123304354674</v>
+        <v>12.33719903430569</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>0.1594794679810595</v>
+        <v>12.4326299533795</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>0.1610479497590116</v>
+        <v>12.52529550603547</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>0.1618954581011907</v>
+        <v>12.61982027458507</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>0.1629927257760558</v>
+        <v>12.71395120071835</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>0.1641122674927038</v>
+        <v>12.80767606627469</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>0.1656351828887222</v>
+        <v>12.90350786082815</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>0.1668634589941126</v>
+        <v>13.0007747065924</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>0.1669937088572863</v>
+        <v>13.10228358961356</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>0.1674028994815472</v>
+        <v>13.20606072448316</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>0.1683111138017523</v>
+        <v>13.31153567878317</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>0.1693474728699976</v>
+        <v>13.4177142191087</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>0.1708265759798278</v>
+        <v>13.52678633493841</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>0.1719210879253189</v>
+        <v>13.63442590852943</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>0.1720996244982718</v>
+        <v>13.73869497115676</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>0.1723601403995868</v>
+        <v>13.84401648078742</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>0.1727006538384711</v>
+        <v>13.95167232267918</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>0.1730908959522516</v>
+        <v>14.0612866801442</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>0.1732721701773018</v>
+        <v>14.17034082270536</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>0.1736320808039539</v>
+        <v>14.27888605225901</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>0.1733930869030597</v>
+        <v>14.39130526706446</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>0.1728802003631158</v>
+        <v>14.50271241494064</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>0.1726180389700098</v>
+        <v>14.61067202390536</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>0.1718591597741046</v>
+        <v>14.72031815349435</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>0.1720677493815556</v>
+        <v>14.82761596286206</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>0.1726412648466004</v>
+        <v>14.93986475648772</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>0.1735631700211432</v>
+        <v>15.05219716469028</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>0.1731823624078601</v>
+        <v>15.16687475470046</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>0.1730486300528239</v>
+        <v>15.27940854531719</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>0.172857897333578</v>
+        <v>15.39170306395946</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>0.1729171060122482</v>
+        <v>15.50280662600399</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>0.1724106206685961</v>
+        <v>15.61120614549797</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>0.171991947879028</v>
+        <v>15.72034013011253</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>0.172306207962095</v>
+        <v>15.83154420703538</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>0.1729242364646934</v>
+        <v>15.9382025411333</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>0.1728570738297795</v>
+        <v>16.04509280920497</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>0.1718300322839537</v>
+        <v>16.15036396659199</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>0.1698870808622146</v>
+        <v>16.25385104247145</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>0.1681683429465114</v>
+        <v>16.35906021871976</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>0.1672949389280521</v>
+        <v>16.46629395489081</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>0.1670049190421039</v>
+        <v>16.57216785012297</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>0.1668973630783499</v>
+        <v>16.67968808668192</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>0.1677568804074426</v>
+        <v>16.78658714979962</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>0.1689595379883656</v>
+        <v>16.89309141839559</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>0.1698208545414726</v>
+        <v>16.99491645328873</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>0.1712280561498141</v>
+        <v>17.08917301996411</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>0.173190551726343</v>
+        <v>17.18793115066483</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>16.90015737913055</v>
       </c>
       <c r="C191">
-        <v>0.1750680038684923</v>
+        <v>17.28993101523923</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>0.1764207157913076</v>
+        <v>17.39431206967919</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>0.1771212881024317</v>
+        <v>17.49866195483611</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>0.177631498495938</v>
+        <v>17.60713391304612</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>0.1777693734938198</v>
+        <v>17.71097466710536</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>0.1778800365771651</v>
+        <v>17.81341581999005</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>0.1782048631330038</v>
+        <v>17.91603479541428</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>0.1792295752563274</v>
+        <v>18.02199227282831</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>0.1801542134609537</v>
+        <v>18.13147382115434</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>0.1789090732506517</v>
+        <v>18.23930657354244</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>0.1775143172406193</v>
+        <v>18.34889960256974</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>0.1766690856741217</v>
+        <v>18.46231887340213</v>
       </c>
     </row>
   </sheetData>

--- a/MSD Results/msd_100.xlsx
+++ b/MSD Results/msd_100.xlsx
@@ -427,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.009753288441728696</v>
+        <v>0.009766928276264165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.02157659858511547</v>
+        <v>0.02156083928521075</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.0377849253088377</v>
+        <v>0.03768389350446941</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.05812028643739596</v>
+        <v>0.05793087251842101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.08231289993266075</v>
+        <v>0.08211674818633509</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.1101107626374209</v>
+        <v>0.1100196358716836</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.1413572371700808</v>
+        <v>0.1413907157287204</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.1758132597114231</v>
+        <v>0.1759662852151182</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.213531362051066</v>
+        <v>0.2135316288410345</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.2542871859734577</v>
+        <v>0.2539119324223771</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>0.2976232721880532</v>
       </c>
       <c r="C14">
-        <v>0.2980824994059056</v>
+        <v>0.2973456529191318</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.3441330044857458</v>
+        <v>0.343301632711253</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.3932446638739931</v>
+        <v>0.3917782546298345</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.4449773431519968</v>
+        <v>0.4431988432875831</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.4987681814223643</v>
+        <v>0.4971398688432354</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.5550933730433075</v>
+        <v>0.5537000682763866</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.6139976142488555</v>
+        <v>0.6122808058000074</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.6745541167018773</v>
+        <v>0.6728804180902944</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.7374691439830344</v>
+        <v>0.7343504337700244</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.8017998987415691</v>
+        <v>0.7982936451717921</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.8679264410609109</v>
+        <v>0.864130012066739</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.9366483194812001</v>
+        <v>0.9310223292982482</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>1.006951038414591</v>
+        <v>1.000176066246037</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>1.079094312534609</v>
+        <v>1.069881444109924</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>1.152540731233806</v>
+        <v>1.140771356907071</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>1.226309393504759</v>
+        <v>1.21348372823346</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>1.30142877373184</v>
+        <v>1.286911438463979</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>1.377087506742659</v>
+        <v>1.362170694584545</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>1.451951361756234</v>
+        <v>1.43818385021918</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>1.528488935384992</v>
+        <v>1.515799656775276</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>1.605886033647769</v>
+        <v>1.595274869848191</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>1.684791714549768</v>
+        <v>1.677115880604857</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>1.766427128453978</v>
+        <v>1.759145847139342</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>1.850068774031568</v>
+        <v>1.84197027695373</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>1.934943355299791</v>
+        <v>1.924590493193331</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>2.020400043623249</v>
+        <v>2.008114440913517</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>2.106714956667689</v>
+        <v>2.093482771941306</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>2.194006196836227</v>
+        <v>2.181104635333345</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>2.281261571946917</v>
+        <v>2.268919388456272</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>2.368985090193066</v>
+        <v>2.358463849815404</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>2.456820567529328</v>
+        <v>2.448541345077498</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>2.545835954395754</v>
+        <v>2.538289984065774</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>2.634234613249705</v>
+        <v>2.629027880529704</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>2.725825304919247</v>
+        <v>2.719752913221949</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>2.818972240099197</v>
+        <v>2.811270678689108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>2.913025734881148</v>
+        <v>2.903231025592738</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>3.007044382615518</v>
+        <v>2.995958196681791</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>3.101783469974173</v>
+        <v>3.088603669196094</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>3.196765909754238</v>
+        <v>3.181193091226759</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>3.292417848555297</v>
+        <v>3.274148995459111</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>3.386997148009073</v>
+        <v>3.368210784214019</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>3.484233884631472</v>
+        <v>3.461719621408712</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>3.581537370759428</v>
+        <v>3.555979297342192</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>3.675650844039735</v>
+        <v>3.648939620356668</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>3.770374924849635</v>
+        <v>3.743141749368196</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>3.864745806903871</v>
+        <v>3.838665717662304</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>3.961427760206349</v>
+        <v>3.932494679593262</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>4.060040129570856</v>
+        <v>4.024561117870975</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>4.157540562788473</v>
+        <v>4.117808827899569</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>4.253690681866249</v>
+        <v>4.208724950245021</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>4.34976252190444</v>
+        <v>4.301433155321211</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>4.445567513285054</v>
+        <v>4.395755572004175</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>4.540033283819307</v>
+        <v>4.488407007259687</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>4.636305740418603</v>
+        <v>4.579221823869865</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>4.733326002505752</v>
+        <v>4.671802879197249</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>4.829281572553685</v>
+        <v>4.767169018631933</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>4.92808018648923</v>
+        <v>4.861708928410478</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>5.029435177514951</v>
+        <v>4.956754837452218</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>5.132984571960407</v>
+        <v>5.052683243365809</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>5.233743657854486</v>
+        <v>5.146942548177481</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>5.334584048639293</v>
+        <v>5.241017865701242</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>5.434030633064582</v>
+        <v>5.338009662340804</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>5.534610045979209</v>
+        <v>5.434880067029571</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>5.636414551632722</v>
+        <v>5.530137835552329</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>5.737600592654746</v>
+        <v>5.625037240060605</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>5.838238762418049</v>
+        <v>5.720688333770771</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>5.939462332274943</v>
+        <v>5.819383002566001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>6.040362256539602</v>
+        <v>5.915852666985556</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>6.142296672777496</v>
+        <v>6.012487754312793</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>6.242743397262635</v>
+        <v>6.108698404793738</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>6.343388926739173</v>
+        <v>6.202834244494725</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>6.442820551434512</v>
+        <v>6.297354310099582</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>6.54199806931549</v>
+        <v>6.394385161422254</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>6.642444631282885</v>
+        <v>6.488578142800312</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>6.742172926395744</v>
+        <v>6.579678569901363</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>6.843337769150001</v>
+        <v>6.669389456221282</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>6.942168243712032</v>
+        <v>6.760815486724486</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>7.038642118987839</v>
+        <v>6.852005244680887</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>7.135013694498836</v>
+        <v>6.943584247241769</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>7.233128501390492</v>
+        <v>7.034341550429226</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>7.332246337792009</v>
+        <v>7.122763647494867</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>7.43389864162849</v>
+        <v>7.211731110977082</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>7.536982371312396</v>
+        <v>7.299280065161661</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>7.640948627536591</v>
+        <v>7.387109944488856</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>7.746357369998607</v>
+        <v>7.472961584494465</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>7.853735898449598</v>
+        <v>7.558220941875952</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>7.959548978743338</v>
+        <v>7.64199171280158</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>8.06647836357952</v>
+        <v>7.727326328020477</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>8.172781888151736</v>
+        <v>7.813545461685887</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>8.280765608787977</v>
+        <v>7.900877104352147</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>8.387800301224257</v>
+        <v>7.989663340852015</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>8.493239859616766</v>
+        <v>8.082023733375244</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>8.598519078563768</v>
+        <v>8.175969354564662</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>8.700628490773145</v>
+        <v>8.268061791159271</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>8.802098570257716</v>
+        <v>8.363709643440774</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>8.906071375614323</v>
+        <v>8.459151285024179</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>9.008814499444167</v>
+        <v>8.55250464498797</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>9.109550416528609</v>
+        <v>8.645657190166572</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>9.211282297120452</v>
+        <v>8.741644233342114</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>9.311879187490629</v>
+        <v>8.836654362834368</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>9.416582383104572</v>
+        <v>8.931199023117294</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>9.521891850989215</v>
+        <v>9.024501552602111</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>9.627382337926939</v>
+        <v>9.118876695039441</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>9.732817898636782</v>
+        <v>9.213171743907242</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>9.838889890139484</v>
+        <v>9.304765471661725</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>9.943144134795773</v>
+        <v>9.398580788113756</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>10.04691939994323</v>
+        <v>9.491363616619351</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>10.14923014534803</v>
+        <v>9.583222948680124</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>10.24978726812698</v>
+        <v>9.673925468278078</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>10.3543031051886</v>
+        <v>9.763477625451047</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>10.4587894662314</v>
+        <v>9.852438853478587</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>10.5621545016005</v>
+        <v>9.943005646028384</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>10.66402407495465</v>
+        <v>10.02795287859986</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>10.76247371725452</v>
+        <v>10.11750849323839</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>10.85918810972141</v>
+        <v>10.20696737665774</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>10.9536872385345</v>
+        <v>10.3013722155928</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>11.04609334826881</v>
+        <v>10.39733642429015</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>11.13724717078817</v>
+        <v>10.49611502842655</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>11.22607104465442</v>
+        <v>10.59702391712197</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>11.31715298187858</v>
+        <v>10.69879500701096</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>11.40786227100048</v>
+        <v>10.80214591397073</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>11.49662622030412</v>
+        <v>10.90575053299088</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>11.58696438994979</v>
+        <v>11.00600041588144</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>11.68065592770288</v>
+        <v>11.10405873561306</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>11.77598414573585</v>
+        <v>11.20267411895002</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>11.87217648173922</v>
+        <v>11.2984956755699</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>11.96628536354504</v>
+        <v>11.39288210652145</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>12.05920621382399</v>
+        <v>11.48717716540073</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>12.15212218231508</v>
+        <v>11.58149565068853</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>12.2446912030152</v>
+        <v>11.67324617846016</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>12.33719903430569</v>
+        <v>11.76809160584478</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>12.4326299533795</v>
+        <v>11.86394489766182</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>12.52529550603547</v>
+        <v>11.96190096850571</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>12.61982027458507</v>
+        <v>12.05871364487362</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>12.71395120071835</v>
+        <v>12.15657851317827</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>12.80767606627469</v>
+        <v>12.25113801976408</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>12.90350786082815</v>
+        <v>12.34322529211937</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>13.0007747065924</v>
+        <v>12.43043409176714</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>13.10228358961356</v>
+        <v>12.51756517225301</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>13.20606072448316</v>
+        <v>12.60355781575264</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>13.31153567878317</v>
+        <v>12.68910508564745</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>13.4177142191087</v>
+        <v>12.77950347318619</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>13.52678633493841</v>
+        <v>12.87032112335066</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>13.63442590852943</v>
+        <v>12.96324352276563</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>13.73869497115676</v>
+        <v>13.05085469146212</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>13.84401648078742</v>
+        <v>13.13854776065747</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>13.95167232267918</v>
+        <v>13.22536211229055</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>14.0612866801442</v>
+        <v>13.31097588638839</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>14.17034082270536</v>
+        <v>13.39691901929483</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>14.27888605225901</v>
+        <v>13.48285162466797</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>14.39130526706446</v>
+        <v>13.56731330434999</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>14.50271241494064</v>
+        <v>13.65458681000866</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>14.61067202390536</v>
+        <v>13.73990182786301</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>14.72031815349435</v>
+        <v>13.82891538799531</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>14.82761596286206</v>
+        <v>13.91494125557686</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>14.93986475648772</v>
+        <v>14.00058640158587</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>15.05219716469028</v>
+        <v>14.08806284497787</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>15.16687475470046</v>
+        <v>14.17807687084446</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>15.27940854531719</v>
+        <v>14.2679642008113</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>15.39170306395946</v>
+        <v>14.35785687957468</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>15.50280662600399</v>
+        <v>14.44955472965438</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>15.61120614549797</v>
+        <v>14.54354972690854</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>15.72034013011253</v>
+        <v>14.64088877572349</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>15.83154420703538</v>
+        <v>14.74130301920446</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>15.9382025411333</v>
+        <v>14.84174189483419</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>16.04509280920497</v>
+        <v>14.94210159480829</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>16.15036396659199</v>
+        <v>15.0425224073348</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>16.25385104247145</v>
+        <v>15.14475285297704</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>16.35906021871976</v>
+        <v>15.24934689628938</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>16.46629395489081</v>
+        <v>15.35457087821087</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>16.57216785012297</v>
+        <v>15.45830586871507</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>16.67968808668192</v>
+        <v>15.56005149572838</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>16.78658714979962</v>
+        <v>15.66293786430422</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>16.89309141839559</v>
+        <v>15.76546138198191</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>16.99491645328873</v>
+        <v>15.86938494292997</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>17.08917301996411</v>
+        <v>15.97443903842094</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>17.18793115066483</v>
+        <v>16.07855422483054</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>16.90015737913055</v>
       </c>
       <c r="C191">
-        <v>17.28993101523923</v>
+        <v>16.18456968737577</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>17.39431206967919</v>
+        <v>16.2845129709932</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>17.49866195483611</v>
+        <v>16.38193792587768</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>17.60713391304612</v>
+        <v>16.47834618310264</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>17.71097466710536</v>
+        <v>16.57680089591404</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>17.81341581999005</v>
+        <v>16.67592593033145</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>17.91603479541428</v>
+        <v>16.77511565391696</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>18.02199227282831</v>
+        <v>16.8719277457567</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>18.13147382115434</v>
+        <v>16.97346938778329</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>18.23930657354244</v>
+        <v>17.07493884558764</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>18.34889960256974</v>
+        <v>17.17398187986439</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>18.46231887340213</v>
+        <v>17.27137236196538</v>
       </c>
     </row>
   </sheetData>
